--- a/data/teacher/SUBSTITUTO.xlsx
+++ b/data/teacher/SUBSTITUTO.xlsx
@@ -995,7 +995,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NB-T. não Metalicos', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-1NB-T. não Metalicos', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['MEC-1NB-T. não Metalicos', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-1NB-T. não Metalicos', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
